--- a/task4/stats.xlsx
+++ b/task4/stats.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="results" localSheetId="0">Лист1!$A$2:$C$11</definedName>
+    <definedName name="results" localSheetId="0">Лист1!$A$2:$C$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,6 +51,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,7 +85,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -213,10 +216,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>Лист1!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -246,45 +249,69 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$11</c:f>
+              <c:f>Лист1!$B$2:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0006637573242102E-5</c:v>
+                  <c:v>2.0005702972412098E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0016174316406203E-5</c:v>
+                  <c:v>1.50322914123535E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0056915283203105E-5</c:v>
+                  <c:v>1.5006065368652299E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5090446472167903E-5</c:v>
+                  <c:v>3.00407409667968E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0087184906005798E-5</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>1.2507438659667899E-4</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>3.55317592620849E-4</c:v>
+                  <c:v>4.00567054748535E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0038566589355399E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7518520355224601E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6064338684082003E-4</c:v>
+                  <c:v>5.3071498870849599E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.14699172973632E-3</c:v>
+                  <c:v>1.9665145874023398E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.26733922958374E-2</c:v>
+                  <c:v>7.5751829147338804E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2111411094665497E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12850632905959999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51937124967574999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0833487963676398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,10 +355,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
+              <c:f>Лист1!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -361,45 +388,69 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$2:$C$11</c:f>
+              <c:f>Лист1!$C$2:$C$15</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.9996376037597603E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.9996376037597603E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9972534179687502E-6</c:v>
+                  <c:v>1.5003681182861299E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9978961944580002E-5</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>2.25100517272949E-4</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>9.30628776550293E-4</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>3.2721185684204102E-3</c:v>
+                  <c:v>4.5003890991210901E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3005733489990199E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5031309127807601E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6910362243652301E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.19479084014892E-2</c:v>
+                  <c:v>7.2494792938232397E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8112151622772201E-2</c:v>
+                  <c:v>2.8523805141448901E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20795948028564401</c:v>
+                  <c:v>0.117528901100158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44730657577514599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7797845387458799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2105578708648599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.6757537937164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,6 +477,8 @@
         <c:axId val="445721040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="13"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -549,6 +602,7 @@
         <c:axId val="445714800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -624,7 +678,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1603,17 +1657,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0006637573242102E-5</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>2.0005702972412098E-5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.9996376037597603E-6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>4.0016174316406203E-5</v>
+        <v>1.50322914123535E-5</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>4.9996376037597603E-6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,10 +1708,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>7.0056915283203105E-5</v>
+        <v>1.5006065368652299E-5</v>
       </c>
       <c r="C4" s="1">
-        <v>4.9972534179687502E-6</v>
+        <v>1.5003681182861299E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,10 +1719,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3.5090446472167903E-5</v>
+        <v>3.00407409667968E-5</v>
       </c>
       <c r="C5" s="1">
-        <v>5.9978961944580002E-5</v>
+        <v>4.5003890991210901E-5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1676,32 +1730,32 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>8.0087184906005798E-5</v>
-      </c>
-      <c r="C6">
-        <v>2.25100517272949E-4</v>
+        <v>4.00567054748535E-5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.3005733489990199E-4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.2507438659667899E-4</v>
-      </c>
-      <c r="C7">
-        <v>9.30628776550293E-4</v>
+      <c r="B7" s="1">
+        <v>6.0038566589355399E-5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.5031309127807601E-4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>3.55317592620849E-4</v>
-      </c>
-      <c r="C8">
-        <v>3.2721185684204102E-3</v>
+      <c r="B8" s="1">
+        <v>1.7518520355224601E-4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.6910362243652301E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,10 +1763,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>8.6064338684082003E-4</v>
+        <v>5.3071498870849599E-4</v>
       </c>
       <c r="C9" s="1">
-        <v>1.19479084014892E-2</v>
+        <v>7.2494792938232397E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1720,10 +1774,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>3.14699172973632E-3</v>
+        <v>1.9665145874023398E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>4.8112151622772201E-2</v>
+        <v>2.8523805141448901E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,10 +1785,54 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1.26733922958374E-2</v>
+        <v>7.5751829147338804E-3</v>
       </c>
       <c r="C11" s="1">
-        <v>0.20795948028564401</v>
+        <v>0.117528901100158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.2111411094665497E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.44730657577514599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.12850632905959999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.7797845387458799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.51937124967574999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7.2105578708648599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.0833487963676398</v>
+      </c>
+      <c r="C15" s="1">
+        <v>28.6757537937164</v>
       </c>
     </row>
   </sheetData>
